--- a/src/DataEngine/DataEngine.xlsx
+++ b/src/DataEngine/DataEngine.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acro\Documents\suchi\selenium\QA_Assignment\src\DataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAE4E4-7667-47EE-8EEC-9AA734B39F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA380E-8F35-4AD7-A62D-2C54AFA4838A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Steps'!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Steps'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -444,9 +444,6 @@
     <t>#Order History</t>
   </si>
   <si>
-    <t>menu_CasualDress</t>
-  </si>
-  <si>
     <t>test324403@jyx.com</t>
   </si>
   <si>
@@ -480,13 +477,35 @@
     <t>hover</t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>Hover to Casual Dresses</t>
+  </si>
+  <si>
+    <t>menu_CasualDressh</t>
+  </si>
+  <si>
+    <t>menu_CasualDressc</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>img_item</t>
+  </si>
+  <si>
+    <t>hover to item image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,22 +835,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="25.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -934,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
@@ -1065,8 +1084,9 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>147</v>
+      <c r="E11" s="1" t="str">
+        <f>(E2)</f>
+        <v>Mozilla</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>29</v>
@@ -1200,13 +1220,13 @@
         <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>64</v>
@@ -1220,13 +1240,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>64</v>
@@ -1240,13 +1263,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>64</v>
@@ -1260,16 +1286,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1280,16 +1309,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,59 +1323,62 @@
         <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>62</v>
@@ -1357,19 +1386,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>62</v>
@@ -1380,13 +1409,19 @@
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>62</v>
@@ -1397,16 +1432,16 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>62</v>
@@ -1417,19 +1452,19 @@
         <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,19 +1472,16 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,19 +1489,19 @@
         <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,13 +1509,16 @@
         <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>88</v>
@@ -1494,16 +1529,16 @@
         <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>88</v>
@@ -1514,16 +1549,16 @@
         <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>88</v>
@@ -1534,16 +1569,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>88</v>
@@ -1554,16 +1586,16 @@
         <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>88</v>
@@ -1574,13 +1606,16 @@
         <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>88</v>
@@ -1591,16 +1626,16 @@
         <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>88</v>
@@ -1611,19 +1646,19 @@
         <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,19 +1666,16 @@
         <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,19 +1683,19 @@
         <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,19 +1703,19 @@
         <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,69 +1723,129 @@
         <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38" xr:uid="{D38AAE4A-881E-402B-A91D-3B886B20B2CD}"/>
+  <autoFilter ref="A1:H41" xr:uid="{D38AAE4A-881E-402B-A91D-3B886B20B2CD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{AF625F70-A1E2-44FC-931D-E1341D8629AC}"/>
@@ -1767,14 +1859,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1888,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1810,13 +1902,13 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1838,10 +1930,10 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1852,10 +1944,10 @@
         <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
